--- a/Datos_Pruebas.xlsx
+++ b/Datos_Pruebas.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mochy\OneDrive\Documentos\GitHub\LAB_3_SO_FERRERA_ROJAS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mifmi\Documents\GitHub\INF221-2025-1-TAREA-2-3\LAB_3_SO_FERRERA_ROJAS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB442C13-A1E0-400E-B7CA-BF14C83D22EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C9A26E5-4876-406D-B366-CB56B6EBAC9B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19095" yWindow="0" windowWidth="19410" windowHeight="20985" xr2:uid="{8191505B-BBD3-4CFE-9D9A-E12BBF503AC6}"/>
+    <workbookView xWindow="11424" yWindow="0" windowWidth="11712" windowHeight="12336" xr2:uid="{8191505B-BBD3-4CFE-9D9A-E12BBF503AC6}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -113,7 +113,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -136,11 +136,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -153,7 +166,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1449,32 +1463,32 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A71FA43B-B67F-4EAB-ABE3-1D9C8B46BDB2}">
-  <dimension ref="B2:X44"/>
+  <dimension ref="B2:X51"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="L44" sqref="L44"/>
+    <sheetView tabSelected="1" topLeftCell="N32" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="S51" sqref="S51"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="20.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="11" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="11" width="11.6640625" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="12" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="20.140625" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="20.140625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="20.109375" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="20.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B2" s="5" t="s">
         <v>16</v>
       </c>
       <c r="C2" s="5"/>
     </row>
-    <row r="3" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B3" s="5"/>
       <c r="C3" s="5"/>
     </row>
-    <row r="4" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B4" s="4" t="s">
         <v>0</v>
       </c>
@@ -1487,7 +1501,7 @@
       <c r="P4" s="1"/>
       <c r="Q4" s="1"/>
     </row>
-    <row r="5" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
         <v>2</v>
       </c>
@@ -1555,7 +1569,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
         <v>13</v>
       </c>
@@ -1572,7 +1586,9 @@
       <c r="N6" t="s">
         <v>13</v>
       </c>
-      <c r="O6" s="2"/>
+      <c r="O6" s="2">
+        <v>145</v>
+      </c>
       <c r="P6" s="2"/>
       <c r="Q6" s="2"/>
       <c r="R6" s="2"/>
@@ -1583,7 +1599,7 @@
       <c r="W6" s="2"/>
       <c r="X6" s="2"/>
     </row>
-    <row r="7" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
         <v>14</v>
       </c>
@@ -1611,7 +1627,7 @@
       <c r="W7" s="2"/>
       <c r="X7" s="2"/>
     </row>
-    <row r="8" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B8" t="s">
         <v>3</v>
       </c>
@@ -1639,17 +1655,17 @@
       <c r="W8" s="2"/>
       <c r="X8" s="2"/>
     </row>
-    <row r="38" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B38" s="5" t="s">
         <v>17</v>
       </c>
       <c r="C38" s="5"/>
     </row>
-    <row r="39" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B39" s="5"/>
       <c r="C39" s="5"/>
     </row>
-    <row r="40" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B40" s="4" t="s">
         <v>0</v>
       </c>
@@ -1662,7 +1678,7 @@
       <c r="P40" s="1"/>
       <c r="Q40" s="1"/>
     </row>
-    <row r="41" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B41" t="s">
         <v>2</v>
       </c>
@@ -1730,7 +1746,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="42" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B42" t="s">
         <v>13</v>
       </c>
@@ -1747,18 +1763,38 @@
       <c r="N42" t="s">
         <v>13</v>
       </c>
-      <c r="O42" s="2"/>
-      <c r="P42" s="2"/>
-      <c r="Q42" s="2"/>
-      <c r="R42" s="2"/>
-      <c r="S42" s="2"/>
-      <c r="T42" s="2"/>
-      <c r="U42" s="2"/>
-      <c r="V42" s="2"/>
-      <c r="W42" s="2"/>
-      <c r="X42" s="2"/>
+      <c r="O42" s="2">
+        <v>27</v>
+      </c>
+      <c r="P42" s="2">
+        <v>29</v>
+      </c>
+      <c r="Q42" s="6">
+        <v>15</v>
+      </c>
+      <c r="R42" s="6">
+        <v>22</v>
+      </c>
+      <c r="S42" s="6">
+        <v>19</v>
+      </c>
+      <c r="T42" s="6">
+        <v>39</v>
+      </c>
+      <c r="U42" s="6">
+        <v>23</v>
+      </c>
+      <c r="V42" s="6">
+        <v>22</v>
+      </c>
+      <c r="W42" s="6">
+        <v>29</v>
+      </c>
+      <c r="X42" s="6">
+        <v>17</v>
+      </c>
     </row>
-    <row r="43" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B43" t="s">
         <v>14</v>
       </c>
@@ -1775,18 +1811,38 @@
       <c r="N43" t="s">
         <v>14</v>
       </c>
-      <c r="O43" s="2"/>
-      <c r="P43" s="2"/>
-      <c r="Q43" s="2"/>
-      <c r="R43" s="2"/>
-      <c r="S43" s="2"/>
-      <c r="T43" s="2"/>
-      <c r="U43" s="2"/>
-      <c r="V43" s="2"/>
-      <c r="W43" s="2"/>
-      <c r="X43" s="2"/>
+      <c r="O43" s="2">
+        <v>491</v>
+      </c>
+      <c r="P43" s="2">
+        <v>491</v>
+      </c>
+      <c r="Q43" s="2">
+        <v>491</v>
+      </c>
+      <c r="R43" s="2">
+        <v>491</v>
+      </c>
+      <c r="S43" s="2">
+        <v>491</v>
+      </c>
+      <c r="T43" s="2">
+        <v>491</v>
+      </c>
+      <c r="U43" s="2">
+        <v>491</v>
+      </c>
+      <c r="V43" s="2">
+        <v>491</v>
+      </c>
+      <c r="W43" s="2">
+        <v>491</v>
+      </c>
+      <c r="X43" s="2">
+        <v>491</v>
+      </c>
     </row>
-    <row r="44" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B44" t="s">
         <v>3</v>
       </c>
@@ -1799,7 +1855,7 @@
       <c r="I44" s="3"/>
       <c r="J44" s="3"/>
       <c r="K44" s="3"/>
-      <c r="L44" s="6"/>
+      <c r="L44" s="3"/>
       <c r="N44" t="s">
         <v>3</v>
       </c>
@@ -1813,6 +1869,73 @@
       <c r="V44" s="2"/>
       <c r="W44" s="2"/>
       <c r="X44" s="2"/>
+    </row>
+    <row r="46" spans="2:24" x14ac:dyDescent="0.3">
+      <c r="O46">
+        <v>8</v>
+      </c>
+      <c r="P46">
+        <v>10</v>
+      </c>
+      <c r="Q46">
+        <v>11</v>
+      </c>
+      <c r="R46">
+        <v>8</v>
+      </c>
+      <c r="S46">
+        <v>5</v>
+      </c>
+      <c r="T46">
+        <v>11</v>
+      </c>
+      <c r="U46">
+        <v>16</v>
+      </c>
+      <c r="V46">
+        <v>9</v>
+      </c>
+      <c r="W46">
+        <v>9</v>
+      </c>
+      <c r="X46">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="47" spans="2:24" x14ac:dyDescent="0.3">
+      <c r="O47">
+        <v>2263</v>
+      </c>
+      <c r="P47">
+        <v>2112</v>
+      </c>
+      <c r="Q47">
+        <v>2232</v>
+      </c>
+      <c r="R47">
+        <v>2272</v>
+      </c>
+      <c r="S47">
+        <v>2264</v>
+      </c>
+      <c r="T47">
+        <v>2204</v>
+      </c>
+      <c r="U47">
+        <v>2280</v>
+      </c>
+      <c r="V47">
+        <v>2292</v>
+      </c>
+      <c r="W47">
+        <v>2204</v>
+      </c>
+      <c r="X47">
+        <v>2148</v>
+      </c>
+    </row>
+    <row r="51" spans="19:19" x14ac:dyDescent="0.3">
+      <c r="S51" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="4">

--- a/Datos_Pruebas.xlsx
+++ b/Datos_Pruebas.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mifmi\Documents\GitHub\INF221-2025-1-TAREA-2-3\LAB_3_SO_FERRERA_ROJAS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mochy\OneDrive\Documentos\GitHub\LAB_3_SO_FERRERA_ROJAS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C9A26E5-4876-406D-B366-CB56B6EBAC9B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98188624-31EF-46E0-ACBE-6D7C6A6051A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11424" yWindow="0" windowWidth="11712" windowHeight="12336" xr2:uid="{8191505B-BBD3-4CFE-9D9A-E12BBF503AC6}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{8191505B-BBD3-4CFE-9D9A-E12BBF503AC6}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="18">
   <si>
     <t>PC de Escritorio</t>
   </si>
@@ -96,8 +96,16 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
@@ -160,14 +168,14 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1066,9 +1074,8566 @@
 </styleSheet>
 </file>
 
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="es-CL"/>
+              <a:t>Prueba V/S Mem. Usada Threads</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-CL"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Hoja1!$C$5:$L$5</c:f>
+              <c:strCache>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>Prueba 1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Prueba 2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Prueba 3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Prueba 4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Prueba 5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Prueba 6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Prueba 7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Prueba 8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Prueba 9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Prueba 10</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Hoja1!$C$7:$L$7</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>493</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>493</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>493</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>493</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>493</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>493</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>493</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>493</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>493</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>493</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-FF88-42F7-AB2D-A21A94047B26}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="1808818176"/>
+        <c:axId val="1808820576"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1808818176"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="es-CL"/>
+                  <a:t>Número de Prueba</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-CL"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-CL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1808820576"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1808820576"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="es-CL"/>
+                  <a:t>Memoria [KB]</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-CL"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="#,##0" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-CL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1808818176"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-CL"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="es-CL" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:sysClr>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>Prueba V/S Tiempo Threads</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-CL"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:cat>
+            <c:strRef>
+              <c:f>Hoja1!$O$5:$X$5</c:f>
+              <c:strCache>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>Prueba 1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Prueba 2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Prueba 3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Prueba 4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Prueba 5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Prueba 6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Prueba 7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Prueba 8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Prueba 9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Prueba 10</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Hoja1!$O$6:$X$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>17</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-D607-4837-B205-44E3E22AAD47}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="1967785312"/>
+        <c:axId val="1967783872"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1967785312"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="es-CL" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:sysClr>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t>Número de Prueba</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-CL"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-CL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1967783872"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1967783872"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="es-CL" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:sysClr>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t>Tiempo [ms]</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-CL"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-CL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1967785312"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-CL"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="es-CL" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:sysClr>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>Prueba V/S Mem. Usada Threads</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-CL"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Hoja1!$O$5:$X$5</c:f>
+              <c:strCache>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>Prueba 1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Prueba 2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Prueba 3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Prueba 4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Prueba 5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Prueba 6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Prueba 7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Prueba 8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Prueba 9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Prueba 10</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Hoja1!$O$7:$X$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>491</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>491</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>491</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>491</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>491</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>491</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>491</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>491</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>491</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>491</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-F404-4620-9E97-E0E8D571B665}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="1984642512"/>
+        <c:axId val="1984644432"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1984642512"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="es-CL" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:sysClr>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t>Número de Prueba</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-CL"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-CL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1984644432"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1984644432"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="es-CL" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:sysClr>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t>Memoria [KB]</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-CL"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-CL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1984642512"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-CL"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="es-CL" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:sysClr>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>Prueba V/S Tiempo Forks + Mensajeria</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-CL"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:cat>
+            <c:strRef>
+              <c:f>Hoja1!$C$41:$L$41</c:f>
+              <c:strCache>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>Prueba 1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Prueba 2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Prueba 3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Prueba 4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Prueba 5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Prueba 6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Prueba 7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Prueba 8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Prueba 9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Prueba 10</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Hoja1!$C$42:$L$42</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>167</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>179</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>173</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>167</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>185</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>161</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>164</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>154</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>178</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-00D3-489D-AE1C-9EB9607CA19B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="1810459520"/>
+        <c:axId val="1810460960"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1810459520"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="es-CL" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:sysClr>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t>Número de Prueba</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-CL"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-CL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1810460960"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1810460960"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="es-CL" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:sysClr>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t>Tiempo [ms]</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-CL"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-CL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1810459520"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-CL"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="es-CL" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:sysClr>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>Prueba V/S Mem. Usada Forks + Mensajeria</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-CL"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Hoja1!$C$41:$L$41</c:f>
+              <c:strCache>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>Prueba 1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Prueba 2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Prueba 3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Prueba 4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Prueba 5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Prueba 6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Prueba 7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Prueba 8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Prueba 9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Prueba 10</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Hoja1!$C$43:$L$43</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>3072</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3072</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3072</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3072</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3072</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3072</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3072</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3072</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3072</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3072</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-477E-4B0C-9A74-6E3CB21CA7E1}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="1809386128"/>
+        <c:axId val="1809384208"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1809386128"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="es-CL" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:sysClr>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t>Número de Prueba</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-CL"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-CL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1809384208"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1809384208"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="es-CL" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:sysClr>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t>Memoria [KB]</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-CL"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="#,##0" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-CL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1809386128"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-CL"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="es-CL" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:sysClr>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>Prueba V/S Tiempo Forks + Mensajeria</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-CL"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:cat>
+            <c:strRef>
+              <c:f>Hoja1!$O$41:$X$41</c:f>
+              <c:strCache>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>Prueba 1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Prueba 2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Prueba 3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Prueba 4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Prueba 5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Prueba 6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Prueba 7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Prueba 8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Prueba 9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Prueba 10</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Hoja1!$O$42:$X$42</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>8</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-9AC3-4A0D-A99F-0CAEC5FE4DA2}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="1986955648"/>
+        <c:axId val="1986955168"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1986955648"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="es-CL" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:sysClr>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t>Número de Prueba</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-CL"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-CL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1986955168"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1986955168"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="es-CL" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:sysClr>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t>Tiempo [ms]</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-CL"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-CL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1986955648"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-CL"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="es-CL" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:sysClr>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>Prueba V/S Mem. Usada Forks + Mensajeria</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-CL"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:cat>
+            <c:strRef>
+              <c:f>Hoja1!$O$41:$X$41</c:f>
+              <c:strCache>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>Prueba 1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Prueba 2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Prueba 3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Prueba 4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Prueba 5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Prueba 6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Prueba 7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Prueba 8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Prueba 9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Prueba 10</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Hoja1!$O$43:$X$43</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>2263</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2112</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2232</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2272</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2264</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2204</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2280</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2292</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2204</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2148</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-A089-458A-BFB9-917E404D86D4}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="1804894960"/>
+        <c:axId val="1804896400"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1804894960"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="es-CL" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:sysClr>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t>Número de Prueba</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-CL"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-CL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1804896400"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1804896400"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="es-CL" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:sysClr>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t>Memoria [KB]</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="9.930427802606329E-3"/>
+              <c:y val="0.34623067949839603"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-CL"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-CL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1804894960"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-CL"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="es-CL" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:sysClr>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>Prueba V/S Tiempo Threads</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-CL"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:cat>
+            <c:strRef>
+              <c:f>Hoja1!$C$5:$L$5</c:f>
+              <c:strCache>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>Prueba 1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Prueba 2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Prueba 3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Prueba 4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Prueba 5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Prueba 6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Prueba 7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Prueba 8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Prueba 9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Prueba 10</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Hoja1!$C$6:$L$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>76</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>88</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>106</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>86</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>96</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>87</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>87</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-FC9F-4923-8D74-C7428782D0A4}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="1987325952"/>
+        <c:axId val="1987326912"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1987325952"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="es-CL" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:sysClr>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t>Número de Prueba</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-CL"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-CL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1987326912"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1987326912"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="es-CL" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:sysClr>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t>Tiempo [ms]</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-CL"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-CL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1987325952"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-CL"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>9109</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>3315</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>46381</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Gráfico 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D9196E42-C1B3-DDB6-3CDC-B9D768754499}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>4139</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>3313</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>16564</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>16565</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Gráfico 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F3111AD1-4112-84B6-817B-1C32DA4CFE27}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>4141</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>3313</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>8283</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Gráfico 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E38F5376-BAA7-1D7C-1077-9F1F6959FC02}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>4761</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>14286</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>800099</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>190499</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Gráfico 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0F53555-1E0E-C3DE-0C7F-895B9E00D0BF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>16565</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>3313</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>75</xdr:row>
+      <xdr:rowOff>79513</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="7" name="Gráfico 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5ED09B3B-DBFF-9979-18FA-1EA6FB2F1E69}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>12422</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>3313</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>753718</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>182217</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="8" name="Gráfico 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1008DB5E-7CF4-5584-4846-514BC10A5F74}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>12422</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>11596</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>761999</xdr:colOff>
+      <xdr:row>75</xdr:row>
+      <xdr:rowOff>87796</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="9" name="Gráfico 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{91FE5386-FA25-EFA2-185D-66967F0B78A0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId7"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>739587</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>1120</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>11205</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>33618</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="10" name="Gráfico 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D78BD346-3174-12A9-2700-BCB10D4BC569}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId8"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{292EB42E-5F25-41C0-BAE3-2967CB013F35}" name="Tabla2" displayName="Tabla2" ref="B5:L8" totalsRowShown="0">
-  <autoFilter ref="B5:L8" xr:uid="{292EB42E-5F25-41C0-BAE3-2967CB013F35}"/>
+  <autoFilter ref="B5:L8" xr:uid="{292EB42E-5F25-41C0-BAE3-2967CB013F35}">
+    <filterColumn colId="0">
+      <filters>
+        <filter val="Memoria Peak (bytes)"/>
+        <filter val="Tiempo Total (ms)"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <tableColumns count="11">
     <tableColumn id="1" xr3:uid="{B7C8AAE1-B13D-4463-8A6D-23CE7AC7A5B0}" name="easy"/>
     <tableColumn id="2" xr3:uid="{401D5BD3-2F8D-4CB4-B855-9740AAFB7C00}" name="Prueba 1" dataDxfId="39"/>
@@ -1128,7 +9693,13 @@
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{40323408-FAED-4FC9-883F-AB35F855C45B}" name="Tabla264" displayName="Tabla264" ref="N41:X44" totalsRowShown="0">
-  <autoFilter ref="N41:X44" xr:uid="{40323408-FAED-4FC9-883F-AB35F855C45B}"/>
+  <autoFilter ref="N41:X44" xr:uid="{40323408-FAED-4FC9-883F-AB35F855C45B}">
+    <filterColumn colId="0">
+      <customFilters>
+        <customFilter operator="notEqual" val=" "/>
+      </customFilters>
+    </filterColumn>
+  </autoFilter>
   <tableColumns count="11">
     <tableColumn id="1" xr3:uid="{8373BC7A-A605-44DB-8248-0BB49353CFB6}" name="easy"/>
     <tableColumn id="2" xr3:uid="{F7F9981D-42A3-4F94-A81E-08AA0517FF73}" name="Prueba 1" dataDxfId="9"/>
@@ -1463,45 +10034,45 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A71FA43B-B67F-4EAB-ABE3-1D9C8B46BDB2}">
-  <dimension ref="B2:X51"/>
+  <dimension ref="A2:Z61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="N32" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="S51" sqref="S51"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="Z61" sqref="Z61"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="20.109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="11" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="11" width="11.7109375" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="12" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="20.109375" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="20.109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="20.140625" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="20.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:24" x14ac:dyDescent="0.3">
-      <c r="B2" s="5" t="s">
+    <row r="2" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="B2" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="C2" s="5"/>
+      <c r="C2" s="6"/>
     </row>
-    <row r="3" spans="2:24" x14ac:dyDescent="0.3">
-      <c r="B3" s="5"/>
-      <c r="C3" s="5"/>
+    <row r="3" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="B3" s="6"/>
+      <c r="C3" s="6"/>
     </row>
-    <row r="4" spans="2:24" x14ac:dyDescent="0.3">
-      <c r="B4" s="4" t="s">
+    <row r="4" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="B4" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="4"/>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
       <c r="O4" s="1" t="s">
         <v>15</v>
       </c>
       <c r="P4" s="1"/>
       <c r="Q4" s="1"/>
     </row>
-    <row r="5" spans="2:24" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>2</v>
       </c>
@@ -1569,65 +10140,143 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="2:24" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>13</v>
       </c>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
-      <c r="H6" s="2"/>
-      <c r="I6" s="2"/>
-      <c r="J6" s="2"/>
-      <c r="K6" s="2"/>
-      <c r="L6" s="2"/>
+      <c r="C6" s="2">
+        <v>90</v>
+      </c>
+      <c r="D6" s="2">
+        <v>80</v>
+      </c>
+      <c r="E6" s="2">
+        <v>76</v>
+      </c>
+      <c r="F6" s="2">
+        <v>88</v>
+      </c>
+      <c r="G6" s="2">
+        <v>106</v>
+      </c>
+      <c r="H6" s="2">
+        <v>86</v>
+      </c>
+      <c r="I6" s="2">
+        <v>96</v>
+      </c>
+      <c r="J6" s="2">
+        <v>90</v>
+      </c>
+      <c r="K6" s="2">
+        <v>87</v>
+      </c>
+      <c r="L6" s="2">
+        <v>87</v>
+      </c>
       <c r="N6" t="s">
         <v>13</v>
       </c>
       <c r="O6" s="2">
-        <v>145</v>
-      </c>
-      <c r="P6" s="2"/>
-      <c r="Q6" s="2"/>
-      <c r="R6" s="2"/>
-      <c r="S6" s="2"/>
-      <c r="T6" s="2"/>
-      <c r="U6" s="2"/>
-      <c r="V6" s="2"/>
-      <c r="W6" s="2"/>
-      <c r="X6" s="2"/>
+        <v>27</v>
+      </c>
+      <c r="P6" s="2">
+        <v>29</v>
+      </c>
+      <c r="Q6" s="4">
+        <v>15</v>
+      </c>
+      <c r="R6" s="4">
+        <v>22</v>
+      </c>
+      <c r="S6" s="4">
+        <v>19</v>
+      </c>
+      <c r="T6" s="4">
+        <v>39</v>
+      </c>
+      <c r="U6" s="4">
+        <v>23</v>
+      </c>
+      <c r="V6" s="4">
+        <v>22</v>
+      </c>
+      <c r="W6" s="4">
+        <v>29</v>
+      </c>
+      <c r="X6" s="4">
+        <v>17</v>
+      </c>
     </row>
-    <row r="7" spans="2:24" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
-      <c r="F7" s="3"/>
-      <c r="G7" s="3"/>
-      <c r="H7" s="3"/>
-      <c r="I7" s="3"/>
-      <c r="J7" s="3"/>
-      <c r="K7" s="3"/>
-      <c r="L7" s="3"/>
+      <c r="C7" s="3">
+        <v>493</v>
+      </c>
+      <c r="D7" s="3">
+        <v>493</v>
+      </c>
+      <c r="E7" s="3">
+        <v>493</v>
+      </c>
+      <c r="F7" s="3">
+        <v>493</v>
+      </c>
+      <c r="G7" s="3">
+        <v>493</v>
+      </c>
+      <c r="H7" s="3">
+        <v>493</v>
+      </c>
+      <c r="I7" s="3">
+        <v>493</v>
+      </c>
+      <c r="J7" s="3">
+        <v>493</v>
+      </c>
+      <c r="K7" s="3">
+        <v>493</v>
+      </c>
+      <c r="L7" s="3">
+        <v>493</v>
+      </c>
       <c r="N7" t="s">
         <v>14</v>
       </c>
-      <c r="O7" s="2"/>
-      <c r="P7" s="2"/>
-      <c r="Q7" s="2"/>
-      <c r="R7" s="2"/>
-      <c r="S7" s="2"/>
-      <c r="T7" s="2"/>
-      <c r="U7" s="2"/>
-      <c r="V7" s="2"/>
-      <c r="W7" s="2"/>
-      <c r="X7" s="2"/>
+      <c r="O7" s="2">
+        <v>491</v>
+      </c>
+      <c r="P7" s="2">
+        <v>491</v>
+      </c>
+      <c r="Q7" s="2">
+        <v>491</v>
+      </c>
+      <c r="R7" s="2">
+        <v>491</v>
+      </c>
+      <c r="S7" s="2">
+        <v>491</v>
+      </c>
+      <c r="T7" s="2">
+        <v>491</v>
+      </c>
+      <c r="U7" s="2">
+        <v>491</v>
+      </c>
+      <c r="V7" s="2">
+        <v>491</v>
+      </c>
+      <c r="W7" s="2">
+        <v>491</v>
+      </c>
+      <c r="X7" s="2">
+        <v>491</v>
+      </c>
     </row>
-    <row r="8" spans="2:24" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>3</v>
       </c>
@@ -1655,30 +10304,33 @@
       <c r="W8" s="2"/>
       <c r="X8" s="2"/>
     </row>
-    <row r="38" spans="2:24" x14ac:dyDescent="0.3">
-      <c r="B38" s="5" t="s">
+    <row r="16" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A16" s="7"/>
+    </row>
+    <row r="38" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B38" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="C38" s="5"/>
+      <c r="C38" s="6"/>
     </row>
-    <row r="39" spans="2:24" x14ac:dyDescent="0.3">
-      <c r="B39" s="5"/>
-      <c r="C39" s="5"/>
+    <row r="39" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B39" s="6"/>
+      <c r="C39" s="6"/>
     </row>
-    <row r="40" spans="2:24" x14ac:dyDescent="0.3">
-      <c r="B40" s="4" t="s">
+    <row r="40" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B40" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="C40" s="4"/>
-      <c r="D40" s="4"/>
-      <c r="E40" s="4"/>
+      <c r="C40" s="5"/>
+      <c r="D40" s="5"/>
+      <c r="E40" s="5"/>
       <c r="O40" s="1" t="s">
         <v>15</v>
       </c>
       <c r="P40" s="1"/>
       <c r="Q40" s="1"/>
     </row>
-    <row r="41" spans="2:24" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B41" t="s">
         <v>2</v>
       </c>
@@ -1746,106 +10398,143 @@
         <v>12</v>
       </c>
     </row>
-    <row r="42" spans="2:24" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B42" t="s">
         <v>13</v>
       </c>
-      <c r="C42" s="2"/>
-      <c r="D42" s="2"/>
-      <c r="E42" s="2"/>
-      <c r="F42" s="2"/>
-      <c r="G42" s="2"/>
-      <c r="H42" s="2"/>
-      <c r="I42" s="2"/>
-      <c r="J42" s="2"/>
-      <c r="K42" s="2"/>
-      <c r="L42" s="2"/>
+      <c r="C42" s="2">
+        <v>167</v>
+      </c>
+      <c r="D42" s="2">
+        <v>179</v>
+      </c>
+      <c r="E42" s="2">
+        <v>200</v>
+      </c>
+      <c r="F42" s="2">
+        <v>173</v>
+      </c>
+      <c r="G42" s="2">
+        <v>167</v>
+      </c>
+      <c r="H42" s="2">
+        <v>185</v>
+      </c>
+      <c r="I42" s="2">
+        <v>161</v>
+      </c>
+      <c r="J42" s="2">
+        <v>164</v>
+      </c>
+      <c r="K42" s="2">
+        <v>154</v>
+      </c>
+      <c r="L42" s="2">
+        <v>178</v>
+      </c>
       <c r="N42" t="s">
         <v>13</v>
       </c>
-      <c r="O42" s="2">
-        <v>27</v>
-      </c>
-      <c r="P42" s="2">
-        <v>29</v>
-      </c>
-      <c r="Q42" s="6">
-        <v>15</v>
-      </c>
-      <c r="R42" s="6">
-        <v>22</v>
-      </c>
-      <c r="S42" s="6">
-        <v>19</v>
-      </c>
-      <c r="T42" s="6">
-        <v>39</v>
-      </c>
-      <c r="U42" s="6">
-        <v>23</v>
-      </c>
-      <c r="V42" s="6">
-        <v>22</v>
-      </c>
-      <c r="W42" s="6">
-        <v>29</v>
-      </c>
-      <c r="X42" s="6">
-        <v>17</v>
+      <c r="O42">
+        <v>8</v>
+      </c>
+      <c r="P42">
+        <v>10</v>
+      </c>
+      <c r="Q42">
+        <v>11</v>
+      </c>
+      <c r="R42">
+        <v>8</v>
+      </c>
+      <c r="S42">
+        <v>5</v>
+      </c>
+      <c r="T42">
+        <v>11</v>
+      </c>
+      <c r="U42">
+        <v>16</v>
+      </c>
+      <c r="V42">
+        <v>9</v>
+      </c>
+      <c r="W42">
+        <v>9</v>
+      </c>
+      <c r="X42">
+        <v>8</v>
       </c>
     </row>
-    <row r="43" spans="2:24" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B43" t="s">
         <v>14</v>
       </c>
-      <c r="C43" s="3"/>
-      <c r="D43" s="3"/>
-      <c r="E43" s="3"/>
-      <c r="F43" s="3"/>
-      <c r="G43" s="3"/>
-      <c r="H43" s="3"/>
-      <c r="I43" s="3"/>
-      <c r="J43" s="3"/>
-      <c r="K43" s="3"/>
-      <c r="L43" s="3"/>
+      <c r="C43" s="3">
+        <v>3072</v>
+      </c>
+      <c r="D43" s="3">
+        <v>3072</v>
+      </c>
+      <c r="E43" s="3">
+        <v>3072</v>
+      </c>
+      <c r="F43" s="3">
+        <v>3072</v>
+      </c>
+      <c r="G43" s="3">
+        <v>3072</v>
+      </c>
+      <c r="H43" s="3">
+        <v>3072</v>
+      </c>
+      <c r="I43" s="3">
+        <v>3072</v>
+      </c>
+      <c r="J43" s="3">
+        <v>3072</v>
+      </c>
+      <c r="K43" s="3">
+        <v>3072</v>
+      </c>
+      <c r="L43" s="3">
+        <v>3072</v>
+      </c>
       <c r="N43" t="s">
         <v>14</v>
       </c>
-      <c r="O43" s="2">
-        <v>491</v>
-      </c>
-      <c r="P43" s="2">
-        <v>491</v>
-      </c>
-      <c r="Q43" s="2">
-        <v>491</v>
-      </c>
-      <c r="R43" s="2">
-        <v>491</v>
-      </c>
-      <c r="S43" s="2">
-        <v>491</v>
-      </c>
-      <c r="T43" s="2">
-        <v>491</v>
-      </c>
-      <c r="U43" s="2">
-        <v>491</v>
-      </c>
-      <c r="V43" s="2">
-        <v>491</v>
-      </c>
-      <c r="W43" s="2">
-        <v>491</v>
-      </c>
-      <c r="X43" s="2">
-        <v>491</v>
+      <c r="O43">
+        <v>2263</v>
+      </c>
+      <c r="P43">
+        <v>2112</v>
+      </c>
+      <c r="Q43">
+        <v>2232</v>
+      </c>
+      <c r="R43">
+        <v>2272</v>
+      </c>
+      <c r="S43">
+        <v>2264</v>
+      </c>
+      <c r="T43">
+        <v>2204</v>
+      </c>
+      <c r="U43">
+        <v>2280</v>
+      </c>
+      <c r="V43">
+        <v>2292</v>
+      </c>
+      <c r="W43">
+        <v>2204</v>
+      </c>
+      <c r="X43">
+        <v>2148</v>
       </c>
     </row>
-    <row r="44" spans="2:24" x14ac:dyDescent="0.3">
-      <c r="B44" t="s">
-        <v>3</v>
-      </c>
+    <row r="44" spans="2:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="C44" s="3"/>
       <c r="D44" s="3"/>
       <c r="E44" s="3"/>
@@ -1856,9 +10545,6 @@
       <c r="J44" s="3"/>
       <c r="K44" s="3"/>
       <c r="L44" s="3"/>
-      <c r="N44" t="s">
-        <v>3</v>
-      </c>
       <c r="O44" s="2"/>
       <c r="P44" s="2"/>
       <c r="Q44" s="2"/>
@@ -1870,72 +10556,8 @@
       <c r="W44" s="2"/>
       <c r="X44" s="2"/>
     </row>
-    <row r="46" spans="2:24" x14ac:dyDescent="0.3">
-      <c r="O46">
-        <v>8</v>
-      </c>
-      <c r="P46">
-        <v>10</v>
-      </c>
-      <c r="Q46">
-        <v>11</v>
-      </c>
-      <c r="R46">
-        <v>8</v>
-      </c>
-      <c r="S46">
-        <v>5</v>
-      </c>
-      <c r="T46">
-        <v>11</v>
-      </c>
-      <c r="U46">
-        <v>16</v>
-      </c>
-      <c r="V46">
-        <v>9</v>
-      </c>
-      <c r="W46">
-        <v>9</v>
-      </c>
-      <c r="X46">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="47" spans="2:24" x14ac:dyDescent="0.3">
-      <c r="O47">
-        <v>2263</v>
-      </c>
-      <c r="P47">
-        <v>2112</v>
-      </c>
-      <c r="Q47">
-        <v>2232</v>
-      </c>
-      <c r="R47">
-        <v>2272</v>
-      </c>
-      <c r="S47">
-        <v>2264</v>
-      </c>
-      <c r="T47">
-        <v>2204</v>
-      </c>
-      <c r="U47">
-        <v>2280</v>
-      </c>
-      <c r="V47">
-        <v>2292</v>
-      </c>
-      <c r="W47">
-        <v>2204</v>
-      </c>
-      <c r="X47">
-        <v>2148</v>
-      </c>
-    </row>
-    <row r="51" spans="19:19" x14ac:dyDescent="0.3">
-      <c r="S51" s="7"/>
+    <row r="61" spans="26:26" x14ac:dyDescent="0.25">
+      <c r="Z61" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -1946,11 +10568,12 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
   <tableParts count="4">
-    <tablePart r:id="rId2"/>
     <tablePart r:id="rId3"/>
     <tablePart r:id="rId4"/>
     <tablePart r:id="rId5"/>
+    <tablePart r:id="rId6"/>
   </tableParts>
 </worksheet>
 </file>